--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BF456-4EEA-884F-B5DB-235CC0344BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B948A7E-3ABD-A740-A5D5-E38CC1074394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11620" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -198,15 +198,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,10 +543,10 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -561,138 +561,138 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B948A7E-3ABD-A740-A5D5-E38CC1074394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD13E73-30AD-F346-BAC4-03E85CE2638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,23 +523,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -548,7 +548,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -556,142 +556,142 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD13E73-30AD-F346-BAC4-03E85CE2638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CE124E-6FD8-3B47-953E-E12603A9E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -106,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,23 +533,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -548,7 +558,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -556,143 +566,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CE124E-6FD8-3B47-953E-E12603A9E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC492B8-E030-8A45-AB75-261B7742904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="800" yWindow="4880" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="177" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdnne\Documents\GitHub\Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC492B8-E030-8A45-AB75-261B7742904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6526A-8DD0-4233-9481-DC141614590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="4880" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +140,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +165,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -217,8 +231,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20 % - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,23 +549,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="177" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="177" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -566,138 +582,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdnne\Documents\GitHub\Stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6526A-8DD0-4233-9481-DC141614590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E0AFF-1486-804D-B286-90260B72057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>R2.08 "Outils numériques pour les statistiques descriptives"</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>centre de gravité  (graphique)</t>
+  </si>
+  <si>
+    <t>Notion traitée</t>
+  </si>
+  <si>
+    <t>Notion non traitée</t>
   </si>
 </sst>
 </file>
@@ -228,13 +234,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20 % - Accent6" xfId="1" builtinId="50"/>
+    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,34 +553,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="177" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -582,143 +588,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E0AFF-1486-804D-B286-90260B72057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F4BC0-D65D-2342-8E23-92CDC3C119BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>R2.08 "Outils numériques pour les statistiques descriptives"</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Notion non traitée</t>
+  </si>
+  <si>
+    <t>Pour un ensemble d'au moins quatre variables quantitatives</t>
+  </si>
+  <si>
+    <t>matrice de corrélation</t>
+  </si>
+  <si>
+    <t>paire de variables les plus corrélées positivement</t>
+  </si>
+  <si>
+    <t>paire de variables les plus corrélées négativement</t>
   </si>
 </sst>
 </file>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AE17E-0540-441A-8CCD-751E97925FFF}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,14 +739,41 @@
       <c r="C27" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" t="s">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
         <v>26</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopereira/Desktop/Stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo0\Desktop\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F4BC0-D65D-2342-8E23-92CDC3C119BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C5C91A-342B-4B93-AB6C-20EFA0461E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B990344-7859-493A-B664-F22C7AFE09C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
+    <cellStyle name="20 % - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,22 +568,22 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -592,7 +592,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -600,178 +600,178 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" t="s">
         <v>26</v>
